--- a/임시 엑셀.xlsx
+++ b/임시 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonTyphoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976F0D6-5F92-4DC5-BC22-DEFA3E98CF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A064D-9008-44D8-8C26-5E50E954CF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="19">
   <si>
     <t>강서 최종마무리2 (211005)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,406 +609,6 @@
       </c>
       <c r="F5" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>97</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>141</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>103</v>
-      </c>
-      <c r="E12" s="2">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>115</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>129</v>
-      </c>
-      <c r="E19" s="2">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2">
-        <v>125</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
